--- a/source/Excel/Leg_computations.xlsx
+++ b/source/Excel/Leg_computations.xlsx
@@ -8,16 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\CQF\Final_Project\basket_default_swap\source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5146B524-0685-447D-8C6B-63B5B601CEC0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44682128-EF73-449B-A273-23058DA3D87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28125" yWindow="465" windowWidth="43200" windowHeight="17145" xr2:uid="{866FE5D0-AC36-4EDC-9D05-F980BDD1236C}"/>
+    <workbookView xWindow="14400" yWindow="465" windowWidth="43200" windowHeight="17145" tabRatio="348" xr2:uid="{866FE5D0-AC36-4EDC-9D05-F980BDD1236C}"/>
   </bookViews>
   <sheets>
     <sheet name="Premium_Leg" sheetId="1" r:id="rId1"/>
     <sheet name="Default_Leg" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
-    <definedName name="interest_rate">Premium_Leg!$I$1</definedName>
+    <definedName name="interest_rate">Premium_Leg!$I$4</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,12 +38,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
   <si>
     <t>default times</t>
-  </si>
-  <si>
-    <t>dt</t>
   </si>
   <si>
     <t>notional</t>
@@ -51,15 +48,54 @@
   <si>
     <t>df</t>
   </si>
+  <si>
+    <t>Case 1</t>
+  </si>
+  <si>
+    <t>interest rate</t>
+  </si>
+  <si>
+    <t>Present value premium leg</t>
+  </si>
+  <si>
+    <t>time grid</t>
+  </si>
+  <si>
+    <t>time delta</t>
+  </si>
+  <si>
+    <t>no defaults before expiry</t>
+  </si>
+  <si>
+    <t>Case 2</t>
+  </si>
+  <si>
+    <t>one or more defaults before expiry, all protected i.e. k &gt; number of defaults</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Case 3 </t>
+  </si>
+  <si>
+    <t>one or more defaults before expiry, not all are protected for, k &lt; number of defaults</t>
+  </si>
+  <si>
+    <t>k = 2</t>
+  </si>
+  <si>
+    <t>k = 3</t>
+  </si>
+  <si>
+    <t>Dead after here</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
-    <numFmt numFmtId="171" formatCode="0.0000"/>
+    <numFmt numFmtId="164" formatCode="0.0000"/>
   </numFmts>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="6" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -74,8 +110,39 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -87,8 +154,13 @@
         <fgColor rgb="FFFFCC99"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -111,20 +183,41 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="171" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="3"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="2"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
-  <cellStyles count="2">
+  <cellStyles count="4">
+    <cellStyle name="Berechnung" xfId="3" builtinId="22"/>
     <cellStyle name="Eingabe" xfId="1" builtinId="20"/>
     <cellStyle name="Standard" xfId="0" builtinId="0"/>
+    <cellStyle name="Überschrift 1" xfId="2" builtinId="16"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -436,399 +529,1133 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED4B817-309F-4F74-BF92-CE6A16A76A4F}">
-  <dimension ref="A1:U11"/>
+  <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B2" sqref="B2:F2"/>
+      <selection activeCell="A9" sqref="A9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
+    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B1" t="s">
+    <row r="1" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
         <v>0</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I4" s="2">
         <v>0.03</v>
       </c>
     </row>
-    <row r="2" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B2" s="1">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
         <v>5.5</v>
       </c>
-      <c r="D2" s="1">
+      <c r="C5" s="1">
         <v>6</v>
       </c>
-      <c r="E2" s="1">
+      <c r="D5" s="1">
         <v>7</v>
       </c>
-      <c r="F2" s="1">
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
         <v>9</v>
       </c>
     </row>
-    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>1</v>
-      </c>
-      <c r="B5">
-        <v>0.25</v>
-      </c>
-      <c r="C5">
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B8">
+        <v>0</v>
+      </c>
+      <c r="C8">
+        <v>0.25</v>
+      </c>
+      <c r="D8">
         <v>0.5</v>
       </c>
-      <c r="D5">
+      <c r="E8">
         <v>0.75</v>
       </c>
-      <c r="E5">
-        <v>1</v>
-      </c>
-      <c r="F5">
+      <c r="F8">
+        <v>1</v>
+      </c>
+      <c r="G8">
         <v>1.25</v>
       </c>
-      <c r="G5">
+      <c r="H8">
         <v>1.5</v>
       </c>
-      <c r="H5">
+      <c r="I8">
         <v>1.75</v>
       </c>
-      <c r="I5">
+      <c r="J8">
         <v>2</v>
       </c>
-      <c r="J5">
+      <c r="K8">
         <v>2.25</v>
       </c>
-      <c r="K5">
+      <c r="L8">
         <v>2.5</v>
       </c>
-      <c r="L5">
+      <c r="M8">
         <v>2.75</v>
       </c>
-      <c r="M5">
+      <c r="N8">
         <v>3</v>
       </c>
-      <c r="N5">
+      <c r="O8">
         <v>3.25</v>
       </c>
-      <c r="O5">
+      <c r="P8">
         <v>3.5</v>
       </c>
-      <c r="P5">
+      <c r="Q8">
         <v>3.75</v>
       </c>
-      <c r="Q5">
+      <c r="R8">
         <v>4</v>
       </c>
-      <c r="R5">
+      <c r="S8">
         <v>4.25</v>
       </c>
-      <c r="S5">
+      <c r="T8">
         <v>4.5</v>
       </c>
-      <c r="T5">
+      <c r="U8">
         <v>4.75</v>
       </c>
-      <c r="U5">
+      <c r="V8">
         <v>5</v>
       </c>
     </row>
-    <row r="6" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>7</v>
+      </c>
+      <c r="C9">
+        <f>C8-B8</f>
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:V9" si="0">D8-C8</f>
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="V9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+      <c r="V10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>2</v>
       </c>
-      <c r="B6">
-        <v>1</v>
-      </c>
-      <c r="C6">
-        <v>1</v>
-      </c>
-      <c r="D6">
-        <v>1</v>
-      </c>
-      <c r="E6">
-        <v>1</v>
-      </c>
-      <c r="F6">
-        <f>4/5</f>
+      <c r="B11" s="3">
+        <f>EXP(-interest_rate*B8)</f>
+        <v>1</v>
+      </c>
+      <c r="C11" s="3">
+        <f>EXP(-interest_rate*C8)</f>
+        <v>0.99252805481913842</v>
+      </c>
+      <c r="D11" s="3">
+        <f>EXP(-interest_rate*D8)</f>
+        <v>0.98511193960306265</v>
+      </c>
+      <c r="E11" s="3">
+        <f>EXP(-interest_rate*E8)</f>
+        <v>0.97775123719333634</v>
+      </c>
+      <c r="F11" s="3">
+        <f>EXP(-interest_rate*F8)</f>
+        <v>0.97044553354850815</v>
+      </c>
+      <c r="G11" s="3">
+        <f>EXP(-interest_rate*G8)</f>
+        <v>0.96319441772082182</v>
+      </c>
+      <c r="H11" s="3">
+        <f>EXP(-interest_rate*H8)</f>
+        <v>0.95599748183309996</v>
+      </c>
+      <c r="I11" s="3">
+        <f>EXP(-interest_rate*I8)</f>
+        <v>0.94885432105580125</v>
+      </c>
+      <c r="J11" s="3">
+        <f>EXP(-interest_rate*J8)</f>
+        <v>0.94176453358424872</v>
+      </c>
+      <c r="K11" s="3">
+        <f>EXP(-interest_rate*K8)</f>
+        <v>0.93472772061602749</v>
+      </c>
+      <c r="L11" s="3">
+        <f>EXP(-interest_rate*L8)</f>
+        <v>0.92774348632855286</v>
+      </c>
+      <c r="M11" s="3">
+        <f>EXP(-interest_rate*M8)</f>
+        <v>0.92081143785680453</v>
+      </c>
+      <c r="N11" s="3">
+        <f>EXP(-interest_rate*N8)</f>
+        <v>0.91393118527122819</v>
+      </c>
+      <c r="O11" s="3">
+        <f>EXP(-interest_rate*O8)</f>
+        <v>0.90710234155580172</v>
+      </c>
+      <c r="P11" s="3">
+        <f>EXP(-interest_rate*P8)</f>
+        <v>0.90032452258626561</v>
+      </c>
+      <c r="Q11" s="3">
+        <f>EXP(-interest_rate*Q8)</f>
+        <v>0.89359734710851568</v>
+      </c>
+      <c r="R11" s="3">
+        <f>EXP(-interest_rate*R8)</f>
+        <v>0.88692043671715748</v>
+      </c>
+      <c r="S11" s="3">
+        <f>EXP(-interest_rate*S8)</f>
+        <v>0.88029341583422116</v>
+      </c>
+      <c r="T11" s="3">
+        <f>EXP(-interest_rate*T8)</f>
+        <v>0.87371591168803442</v>
+      </c>
+      <c r="U11" s="3">
+        <f>EXP(-interest_rate*U8)</f>
+        <v>0.86718755429225491</v>
+      </c>
+      <c r="V11" s="3">
+        <f>EXP(-interest_rate*V8)</f>
+        <v>0.86070797642505781</v>
+      </c>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="C13">
+        <f>C9*C11</f>
+        <v>0.2481320137047846</v>
+      </c>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="6">
+        <f>SUMPRODUCT(C9:V9,C10:V10,C11:V11)</f>
+        <v>4.625677713909484</v>
+      </c>
+    </row>
+    <row r="18" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="5" t="s">
+        <v>9</v>
+      </c>
+      <c r="B18" s="5" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I20" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B21" t="s">
+        <v>0</v>
+      </c>
+      <c r="I21" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B22" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="C22" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E22" s="1">
+        <v>7</v>
+      </c>
+      <c r="F22" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>6</v>
+      </c>
+      <c r="B25">
+        <v>0</v>
+      </c>
+      <c r="C25">
+        <v>0.25</v>
+      </c>
+      <c r="D25">
+        <v>0.5</v>
+      </c>
+      <c r="E25">
+        <v>0.75</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>1.25</v>
+      </c>
+      <c r="H25">
+        <v>1.5</v>
+      </c>
+      <c r="I25">
+        <v>1.75</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+      <c r="K25">
+        <v>2.25</v>
+      </c>
+      <c r="L25">
+        <v>2.5</v>
+      </c>
+      <c r="M25">
+        <v>2.75</v>
+      </c>
+      <c r="N25">
+        <v>3</v>
+      </c>
+      <c r="O25">
+        <v>3.25</v>
+      </c>
+      <c r="P25">
+        <v>3.5</v>
+      </c>
+      <c r="Q25">
+        <v>3.75</v>
+      </c>
+      <c r="R25">
+        <v>4</v>
+      </c>
+      <c r="S25">
+        <v>4.25</v>
+      </c>
+      <c r="T25">
+        <v>4.5</v>
+      </c>
+      <c r="U25">
+        <v>4.75</v>
+      </c>
+      <c r="V25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>7</v>
+      </c>
+      <c r="C26">
+        <f>C25-B25</f>
+        <v>0.25</v>
+      </c>
+      <c r="D26">
+        <f t="shared" ref="D26" si="1">D25-C25</f>
+        <v>0.25</v>
+      </c>
+      <c r="E26">
+        <f t="shared" ref="E26" si="2">E25-D25</f>
+        <v>0.25</v>
+      </c>
+      <c r="F26">
+        <f t="shared" ref="F26" si="3">F25-E25</f>
+        <v>0.25</v>
+      </c>
+      <c r="G26">
+        <f t="shared" ref="G26" si="4">G25-F25</f>
+        <v>0.25</v>
+      </c>
+      <c r="H26">
+        <f t="shared" ref="H26" si="5">H25-G25</f>
+        <v>0.25</v>
+      </c>
+      <c r="I26">
+        <f t="shared" ref="I26" si="6">I25-H25</f>
+        <v>0.25</v>
+      </c>
+      <c r="J26">
+        <f t="shared" ref="J26" si="7">J25-I25</f>
+        <v>0.25</v>
+      </c>
+      <c r="K26">
+        <f t="shared" ref="K26" si="8">K25-J25</f>
+        <v>0.25</v>
+      </c>
+      <c r="L26">
+        <f t="shared" ref="L26" si="9">L25-K25</f>
+        <v>0.25</v>
+      </c>
+      <c r="M26">
+        <f t="shared" ref="M26" si="10">M25-L25</f>
+        <v>0.25</v>
+      </c>
+      <c r="N26">
+        <f t="shared" ref="N26" si="11">N25-M25</f>
+        <v>0.25</v>
+      </c>
+      <c r="O26">
+        <f t="shared" ref="O26" si="12">O25-N25</f>
+        <v>0.25</v>
+      </c>
+      <c r="P26">
+        <f t="shared" ref="P26" si="13">P25-O25</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q26">
+        <f t="shared" ref="Q26" si="14">Q25-P25</f>
+        <v>0.25</v>
+      </c>
+      <c r="R26">
+        <f t="shared" ref="R26" si="15">R25-Q25</f>
+        <v>0.25</v>
+      </c>
+      <c r="S26">
+        <f t="shared" ref="S26" si="16">S25-R25</f>
+        <v>0.25</v>
+      </c>
+      <c r="T26">
+        <f t="shared" ref="T26" si="17">T25-S25</f>
+        <v>0.25</v>
+      </c>
+      <c r="U26">
+        <f t="shared" ref="U26" si="18">U25-T25</f>
+        <v>0.25</v>
+      </c>
+      <c r="V26">
+        <f t="shared" ref="V26" si="19">V25-U25</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1</v>
+      </c>
+      <c r="B27">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>1</v>
+      </c>
+      <c r="D27">
+        <v>1</v>
+      </c>
+      <c r="E27">
+        <v>1</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>1</v>
+      </c>
+      <c r="H27">
         <v>0.8</v>
       </c>
-      <c r="G6">
-        <f t="shared" ref="G6:U6" si="0">4/5</f>
+      <c r="I27">
         <v>0.8</v>
       </c>
-      <c r="H6">
-        <f t="shared" si="0"/>
+      <c r="J27">
         <v>0.8</v>
       </c>
-      <c r="I6">
-        <f t="shared" si="0"/>
+      <c r="K27">
         <v>0.8</v>
       </c>
-      <c r="J6">
-        <f t="shared" si="0"/>
+      <c r="L27">
         <v>0.8</v>
       </c>
-      <c r="K6">
-        <f t="shared" si="0"/>
+      <c r="M27">
+        <v>0.6</v>
+      </c>
+      <c r="N27">
+        <v>0.6</v>
+      </c>
+      <c r="O27">
+        <v>0.4</v>
+      </c>
+      <c r="P27">
+        <v>0.4</v>
+      </c>
+      <c r="Q27">
+        <v>0.4</v>
+      </c>
+      <c r="R27">
+        <v>0.4</v>
+      </c>
+      <c r="S27">
+        <v>0.4</v>
+      </c>
+      <c r="T27">
+        <v>0.4</v>
+      </c>
+      <c r="U27">
+        <v>0.4</v>
+      </c>
+      <c r="V27">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>2</v>
+      </c>
+      <c r="B28" s="3">
+        <f>EXP(-interest_rate*B25)</f>
+        <v>1</v>
+      </c>
+      <c r="C28" s="3">
+        <f>EXP(-interest_rate*C25)</f>
+        <v>0.99252805481913842</v>
+      </c>
+      <c r="D28" s="3">
+        <f>EXP(-interest_rate*D25)</f>
+        <v>0.98511193960306265</v>
+      </c>
+      <c r="E28" s="3">
+        <f>EXP(-interest_rate*E25)</f>
+        <v>0.97775123719333634</v>
+      </c>
+      <c r="F28" s="3">
+        <f>EXP(-interest_rate*F25)</f>
+        <v>0.97044553354850815</v>
+      </c>
+      <c r="G28" s="3">
+        <f>EXP(-interest_rate*G25)</f>
+        <v>0.96319441772082182</v>
+      </c>
+      <c r="H28" s="3">
+        <f>EXP(-interest_rate*H25)</f>
+        <v>0.95599748183309996</v>
+      </c>
+      <c r="I28" s="3">
+        <f>EXP(-interest_rate*I25)</f>
+        <v>0.94885432105580125</v>
+      </c>
+      <c r="J28" s="3">
+        <f>EXP(-interest_rate*J25)</f>
+        <v>0.94176453358424872</v>
+      </c>
+      <c r="K28" s="3">
+        <f>EXP(-interest_rate*K25)</f>
+        <v>0.93472772061602749</v>
+      </c>
+      <c r="L28" s="3">
+        <f>EXP(-interest_rate*L25)</f>
+        <v>0.92774348632855286</v>
+      </c>
+      <c r="M28" s="3">
+        <f>EXP(-interest_rate*M25)</f>
+        <v>0.92081143785680453</v>
+      </c>
+      <c r="N28" s="3">
+        <f>EXP(-interest_rate*N25)</f>
+        <v>0.91393118527122819</v>
+      </c>
+      <c r="O28" s="3">
+        <f>EXP(-interest_rate*O25)</f>
+        <v>0.90710234155580172</v>
+      </c>
+      <c r="P28" s="3">
+        <f>EXP(-interest_rate*P25)</f>
+        <v>0.90032452258626561</v>
+      </c>
+      <c r="Q28" s="3">
+        <f>EXP(-interest_rate*Q25)</f>
+        <v>0.89359734710851568</v>
+      </c>
+      <c r="R28" s="3">
+        <f>EXP(-interest_rate*R25)</f>
+        <v>0.88692043671715748</v>
+      </c>
+      <c r="S28" s="3">
+        <f>EXP(-interest_rate*S25)</f>
+        <v>0.88029341583422116</v>
+      </c>
+      <c r="T28" s="3">
+        <f>EXP(-interest_rate*T25)</f>
+        <v>0.87371591168803442</v>
+      </c>
+      <c r="U28" s="3">
+        <f>EXP(-interest_rate*U25)</f>
+        <v>0.86718755429225491</v>
+      </c>
+      <c r="V28" s="3">
+        <f>EXP(-interest_rate*V25)</f>
+        <v>0.86070797642505781</v>
+      </c>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="6">
+        <f>SUMPRODUCT(C26:V26,C27:V27,C28:V28)</f>
+        <v>3.1462716484946984</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B35" s="5" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I37" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B38" t="s">
+        <v>0</v>
+      </c>
+      <c r="I38" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B39" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C39" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D39" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E39" s="1">
+        <v>7</v>
+      </c>
+      <c r="F39" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>13</v>
+      </c>
+      <c r="P41" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q41" s="9"/>
+      <c r="R41" s="9"/>
+      <c r="S41" s="9"/>
+      <c r="T41" s="9"/>
+      <c r="U41" s="9"/>
+      <c r="V41" s="9"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>6</v>
+      </c>
+      <c r="B42">
+        <v>0</v>
+      </c>
+      <c r="C42">
+        <v>0.25</v>
+      </c>
+      <c r="D42">
+        <v>0.5</v>
+      </c>
+      <c r="E42">
+        <v>0.75</v>
+      </c>
+      <c r="F42">
+        <v>1</v>
+      </c>
+      <c r="G42">
+        <v>1.25</v>
+      </c>
+      <c r="H42">
+        <v>1.5</v>
+      </c>
+      <c r="I42">
+        <v>1.75</v>
+      </c>
+      <c r="J42">
+        <v>2</v>
+      </c>
+      <c r="K42">
+        <v>2.25</v>
+      </c>
+      <c r="L42">
+        <v>2.5</v>
+      </c>
+      <c r="M42">
+        <v>2.75</v>
+      </c>
+      <c r="N42">
+        <v>3</v>
+      </c>
+      <c r="O42">
+        <v>3.25</v>
+      </c>
+      <c r="P42" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="Q42" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="R42" s="7">
+        <v>4</v>
+      </c>
+      <c r="S42" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="T42" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="U42" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="V42" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>7</v>
+      </c>
+      <c r="C43">
+        <f>C42-B42</f>
+        <v>0.25</v>
+      </c>
+      <c r="D43">
+        <f t="shared" ref="D43" si="20">D42-C42</f>
+        <v>0.25</v>
+      </c>
+      <c r="E43">
+        <f t="shared" ref="E43" si="21">E42-D42</f>
+        <v>0.25</v>
+      </c>
+      <c r="F43">
+        <f t="shared" ref="F43" si="22">F42-E42</f>
+        <v>0.25</v>
+      </c>
+      <c r="G43">
+        <f t="shared" ref="G43" si="23">G42-F42</f>
+        <v>0.25</v>
+      </c>
+      <c r="H43">
+        <f t="shared" ref="H43" si="24">H42-G42</f>
+        <v>0.25</v>
+      </c>
+      <c r="I43">
+        <f t="shared" ref="I43" si="25">I42-H42</f>
+        <v>0.25</v>
+      </c>
+      <c r="J43">
+        <f t="shared" ref="J43" si="26">J42-I42</f>
+        <v>0.25</v>
+      </c>
+      <c r="K43">
+        <f t="shared" ref="K43" si="27">K42-J42</f>
+        <v>0.25</v>
+      </c>
+      <c r="L43">
+        <f t="shared" ref="L43" si="28">L42-K42</f>
+        <v>0.25</v>
+      </c>
+      <c r="M43">
+        <f t="shared" ref="M43" si="29">M42-L42</f>
+        <v>0.25</v>
+      </c>
+      <c r="N43">
+        <f t="shared" ref="N43" si="30">N42-M42</f>
+        <v>0.25</v>
+      </c>
+      <c r="O43">
+        <f t="shared" ref="O43" si="31">O42-N42</f>
+        <v>0.25</v>
+      </c>
+      <c r="P43" s="7">
+        <f t="shared" ref="P43" si="32">P42-O42</f>
+        <v>0.25</v>
+      </c>
+      <c r="Q43" s="7">
+        <f t="shared" ref="Q43" si="33">Q42-P42</f>
+        <v>0.25</v>
+      </c>
+      <c r="R43" s="7">
+        <f t="shared" ref="R43" si="34">R42-Q42</f>
+        <v>0.25</v>
+      </c>
+      <c r="S43" s="7">
+        <f t="shared" ref="S43" si="35">S42-R42</f>
+        <v>0.25</v>
+      </c>
+      <c r="T43" s="7">
+        <f t="shared" ref="T43" si="36">T42-S42</f>
+        <v>0.25</v>
+      </c>
+      <c r="U43" s="7">
+        <f t="shared" ref="U43" si="37">U42-T42</f>
+        <v>0.25</v>
+      </c>
+      <c r="V43" s="7">
+        <f t="shared" ref="V43" si="38">V42-U42</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1</v>
+      </c>
+      <c r="B44">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44">
+        <v>1</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1</v>
+      </c>
+      <c r="G44">
+        <v>1</v>
+      </c>
+      <c r="H44">
         <v>0.8</v>
       </c>
-      <c r="L6">
-        <f t="shared" si="0"/>
+      <c r="I44">
         <v>0.8</v>
       </c>
-      <c r="M6">
-        <f t="shared" si="0"/>
+      <c r="J44">
         <v>0.8</v>
       </c>
-      <c r="N6">
-        <f t="shared" si="0"/>
+      <c r="K44">
         <v>0.8</v>
       </c>
-      <c r="O6">
-        <f t="shared" si="0"/>
+      <c r="L44">
         <v>0.8</v>
       </c>
-      <c r="P6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="Q6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="R6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="S6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="T6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-      <c r="U6">
-        <f t="shared" si="0"/>
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>3</v>
-      </c>
-      <c r="B7" s="3">
-        <f>EXP(-interest_rate*B5)</f>
+      <c r="M44">
+        <v>0.6</v>
+      </c>
+      <c r="N44">
+        <v>0.6</v>
+      </c>
+      <c r="O44">
+        <v>0.4</v>
+      </c>
+      <c r="P44" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="R44" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="S44" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="T44" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="U44" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="V44" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>2</v>
+      </c>
+      <c r="B45" s="3">
+        <f>EXP(-interest_rate*B42)</f>
+        <v>1</v>
+      </c>
+      <c r="C45" s="3">
+        <f>EXP(-interest_rate*C42)</f>
         <v>0.99252805481913842</v>
       </c>
-      <c r="C7" s="3">
-        <f>EXP(-interest_rate*C5)</f>
+      <c r="D45" s="3">
+        <f>EXP(-interest_rate*D42)</f>
         <v>0.98511193960306265</v>
       </c>
-      <c r="D7" s="3">
-        <f>EXP(-interest_rate*D5)</f>
+      <c r="E45" s="3">
+        <f>EXP(-interest_rate*E42)</f>
         <v>0.97775123719333634</v>
       </c>
-      <c r="E7" s="3">
-        <f>EXP(-interest_rate*E5)</f>
+      <c r="F45" s="3">
+        <f>EXP(-interest_rate*F42)</f>
         <v>0.97044553354850815</v>
       </c>
-      <c r="F7" s="3">
-        <f>EXP(-interest_rate*F5)</f>
+      <c r="G45" s="3">
+        <f>EXP(-interest_rate*G42)</f>
         <v>0.96319441772082182</v>
       </c>
-      <c r="G7" s="3">
-        <f>EXP(-interest_rate*G5)</f>
+      <c r="H45" s="3">
+        <f>EXP(-interest_rate*H42)</f>
         <v>0.95599748183309996</v>
       </c>
-      <c r="H7" s="3">
-        <f>EXP(-interest_rate*H5)</f>
+      <c r="I45" s="3">
+        <f>EXP(-interest_rate*I42)</f>
         <v>0.94885432105580125</v>
       </c>
-      <c r="I7" s="3">
-        <f>EXP(-interest_rate*I5)</f>
+      <c r="J45" s="3">
+        <f>EXP(-interest_rate*J42)</f>
         <v>0.94176453358424872</v>
       </c>
-      <c r="J7" s="3">
-        <f>EXP(-interest_rate*J5)</f>
+      <c r="K45" s="3">
+        <f>EXP(-interest_rate*K42)</f>
         <v>0.93472772061602749</v>
       </c>
-      <c r="K7" s="3">
-        <f>EXP(-interest_rate*K5)</f>
+      <c r="L45" s="3">
+        <f>EXP(-interest_rate*L42)</f>
         <v>0.92774348632855286</v>
       </c>
-      <c r="L7" s="3">
-        <f>EXP(-interest_rate*L5)</f>
+      <c r="M45" s="3">
+        <f>EXP(-interest_rate*M42)</f>
         <v>0.92081143785680453</v>
       </c>
-      <c r="M7" s="3">
-        <f>EXP(-interest_rate*M5)</f>
+      <c r="N45" s="3">
+        <f>EXP(-interest_rate*N42)</f>
         <v>0.91393118527122819</v>
       </c>
-      <c r="N7" s="3">
-        <f>EXP(-interest_rate*N5)</f>
+      <c r="O45" s="3">
+        <f>EXP(-interest_rate*O42)</f>
         <v>0.90710234155580172</v>
       </c>
-      <c r="O7" s="3">
-        <f>EXP(-interest_rate*O5)</f>
+      <c r="P45" s="8">
+        <f>EXP(-interest_rate*P42)</f>
         <v>0.90032452258626561</v>
       </c>
-      <c r="P7" s="3">
-        <f>EXP(-interest_rate*P5)</f>
+      <c r="Q45" s="8">
+        <f>EXP(-interest_rate*Q42)</f>
         <v>0.89359734710851568</v>
       </c>
-      <c r="Q7" s="3">
-        <f>EXP(-interest_rate*Q5)</f>
+      <c r="R45" s="8">
+        <f>EXP(-interest_rate*R42)</f>
         <v>0.88692043671715748</v>
       </c>
-      <c r="R7" s="3">
-        <f>EXP(-interest_rate*R5)</f>
+      <c r="S45" s="8">
+        <f>EXP(-interest_rate*S42)</f>
         <v>0.88029341583422116</v>
       </c>
-      <c r="S7" s="3">
-        <f>EXP(-interest_rate*S5)</f>
+      <c r="T45" s="8">
+        <f>EXP(-interest_rate*T42)</f>
         <v>0.87371591168803442</v>
       </c>
-      <c r="T7" s="3">
-        <f>EXP(-interest_rate*T5)</f>
+      <c r="U45" s="8">
+        <f>EXP(-interest_rate*U42)</f>
         <v>0.86718755429225491</v>
       </c>
-      <c r="U7" s="3">
-        <f>EXP(-interest_rate*U5)</f>
+      <c r="V45" s="8">
+        <f>EXP(-interest_rate*V42)</f>
         <v>0.86070797642505781</v>
       </c>
     </row>
-    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B10">
-        <v>1</v>
-      </c>
-      <c r="C10">
-        <v>1</v>
-      </c>
-      <c r="D10">
-        <v>1</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>1</v>
-      </c>
-      <c r="G10">
-        <v>1</v>
-      </c>
-      <c r="H10">
-        <v>1</v>
-      </c>
-      <c r="I10">
-        <v>1</v>
-      </c>
-      <c r="J10">
-        <v>1</v>
-      </c>
-      <c r="K10">
-        <v>1</v>
-      </c>
-      <c r="L10">
-        <v>1</v>
-      </c>
-      <c r="M10">
-        <v>1</v>
-      </c>
-      <c r="N10">
-        <v>1</v>
-      </c>
-      <c r="O10">
-        <v>1</v>
-      </c>
-      <c r="P10">
-        <v>1</v>
-      </c>
-      <c r="Q10">
-        <v>1</v>
-      </c>
-      <c r="R10">
-        <v>1</v>
-      </c>
-      <c r="S10">
-        <v>1</v>
-      </c>
-      <c r="T10">
-        <v>1</v>
-      </c>
-      <c r="U10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="B11">
-        <v>5.5</v>
-      </c>
-      <c r="C11">
-        <v>5.5</v>
-      </c>
-      <c r="D11">
-        <v>5.5</v>
-      </c>
-      <c r="E11">
-        <v>5.5</v>
-      </c>
-      <c r="F11">
-        <v>5.5</v>
-      </c>
-      <c r="G11">
-        <v>5.5</v>
-      </c>
-      <c r="H11">
-        <v>5.5</v>
-      </c>
-      <c r="I11">
-        <v>5.5</v>
-      </c>
-      <c r="J11">
-        <v>5.5</v>
-      </c>
-      <c r="K11">
-        <v>5.5</v>
-      </c>
-      <c r="L11">
-        <v>5.5</v>
-      </c>
-      <c r="M11">
-        <v>5.5</v>
-      </c>
-      <c r="N11">
-        <v>5.5</v>
-      </c>
-      <c r="O11">
-        <v>5.5</v>
-      </c>
-      <c r="P11">
-        <v>5.5</v>
-      </c>
-      <c r="Q11">
-        <v>5.5</v>
-      </c>
-      <c r="R11">
-        <v>5.5</v>
-      </c>
-      <c r="S11">
-        <v>5.5</v>
-      </c>
-      <c r="T11">
-        <v>5.5</v>
-      </c>
-      <c r="U11">
-        <v>5.5</v>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="4" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49" s="6">
+        <f>SUMPRODUCT(C43:O43,C44:O44,C45:O45)</f>
+        <v>2.5299969320295479</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P41:V41"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/source/Excel/Leg_computations.xlsx
+++ b/source/Excel/Leg_computations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\CQF\Final_Project\basket_default_swap\source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{44682128-EF73-449B-A273-23058DA3D87E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F89960C-5E6A-4CFF-9FB4-980DFF74445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="14400" yWindow="465" windowWidth="43200" windowHeight="17145" tabRatio="348" xr2:uid="{866FE5D0-AC36-4EDC-9D05-F980BDD1236C}"/>
+    <workbookView xWindow="11880" yWindow="1920" windowWidth="38250" windowHeight="17145" tabRatio="348" activeTab="1" xr2:uid="{866FE5D0-AC36-4EDC-9D05-F980BDD1236C}"/>
   </bookViews>
   <sheets>
     <sheet name="Premium_Leg" sheetId="1" r:id="rId1"/>
@@ -18,6 +18,7 @@
   </sheets>
   <definedNames>
     <definedName name="interest_rate">Premium_Leg!$I$4</definedName>
+    <definedName name="recovery_rate">Default_Leg!$L$3</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,16 +38,81 @@
 </workbook>
 </file>
 
+<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Stefan Mangold</author>
+  </authors>
+  <commentList>
+    <comment ref="L44" authorId="0" shapeId="0" xr:uid="{DEC4198A-092E-4AF7-BC3B-4C46EF2BA342}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stefan Mangold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The notional is not reduced here by one fifth to 0.6 becuse only 2 defaults are protected against and the swap expirtes at this point, when the 2nd default is observed.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
+  <authors>
+    <author>Stefan Mangold</author>
+  </authors>
+  <commentList>
+    <comment ref="L46" authorId="0" shapeId="0" xr:uid="{3F61CFBA-A96B-476F-B435-3E187B3A0574}">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t>Stefan Mangold:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Segoe UI"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+The notional is not reduced here by one fifth to 0.6 becuse only 2 defaults are protected against and the swap expirtes at this point, when the 2nd default is observed.</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="31" uniqueCount="16">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="21">
   <si>
     <t>default times</t>
   </si>
   <si>
     <t>notional</t>
-  </si>
-  <si>
-    <t>df</t>
   </si>
   <si>
     <t>Case 1</t>
@@ -87,15 +153,34 @@
   <si>
     <t>Dead after here</t>
   </si>
+  <si>
+    <t>discount factor</t>
+  </si>
+  <si>
+    <t>Present value default leg</t>
+  </si>
+  <si>
+    <t>notional change</t>
+  </si>
+  <si>
+    <t>recovery_rate</t>
+  </si>
+  <si>
+    <t>defaults before expiry, but all are protected</t>
+  </si>
+  <si>
+    <t>defaults before expiry, swap expires on k-th default</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="1">
+  <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
+    <numFmt numFmtId="168" formatCode="0.0000000"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="8" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +225,19 @@
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="9"/>
+      <color indexed="81"/>
+      <name val="Segoe UI"/>
+      <family val="2"/>
     </font>
   </fonts>
   <fills count="4">
@@ -199,7 +297,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="10">
+  <cellXfs count="12">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
@@ -212,6 +310,8 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Berechnung" xfId="3" builtinId="22"/>
@@ -528,35 +628,35 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED4B817-309F-4F74-BF92-CE6A16A76A4F}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED4B817-309F-4F74-BF92-CE6A16A76A4F}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A9" sqref="A9"/>
+    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection sqref="A1:Z55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
     <col min="2" max="2" width="12.5703125" customWidth="1"/>
     <col min="3" max="21" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
         <v>3</v>
       </c>
-      <c r="B1" s="5" t="s">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="2" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="I3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
         <v>0</v>
       </c>
@@ -564,7 +664,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B5" s="1">
         <v>5.5</v>
       </c>
@@ -581,89 +681,90 @@
         <v>9</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1.25</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>1.75</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2.25</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>2.75</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3.25</v>
+      </c>
+      <c r="O8">
+        <v>3.5</v>
+      </c>
+      <c r="P8">
+        <v>3.75</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>4.25</v>
+      </c>
+      <c r="S8">
+        <v>4.5</v>
+      </c>
+      <c r="T8">
+        <v>4.75</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
         <v>6</v>
       </c>
-      <c r="B8">
-        <v>0</v>
-      </c>
-      <c r="C8">
-        <v>0.25</v>
-      </c>
-      <c r="D8">
-        <v>0.5</v>
-      </c>
-      <c r="E8">
-        <v>0.75</v>
-      </c>
-      <c r="F8">
-        <v>1</v>
-      </c>
-      <c r="G8">
-        <v>1.25</v>
-      </c>
-      <c r="H8">
-        <v>1.5</v>
-      </c>
-      <c r="I8">
-        <v>1.75</v>
-      </c>
-      <c r="J8">
-        <v>2</v>
-      </c>
-      <c r="K8">
-        <v>2.25</v>
-      </c>
-      <c r="L8">
-        <v>2.5</v>
-      </c>
-      <c r="M8">
-        <v>2.75</v>
-      </c>
-      <c r="N8">
-        <v>3</v>
-      </c>
-      <c r="O8">
-        <v>3.25</v>
-      </c>
-      <c r="P8">
-        <v>3.5</v>
-      </c>
-      <c r="Q8">
-        <v>3.75</v>
-      </c>
-      <c r="R8">
-        <v>4</v>
-      </c>
-      <c r="S8">
-        <v>4.25</v>
-      </c>
-      <c r="T8">
-        <v>4.5</v>
-      </c>
-      <c r="U8">
-        <v>4.75</v>
-      </c>
-      <c r="V8">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>7</v>
+      <c r="B9">
+        <f>B8</f>
+        <v>0.25</v>
       </c>
       <c r="C9">
         <f>C8-B8</f>
         <v>0.25</v>
       </c>
       <c r="D9">
-        <f t="shared" ref="D9:V9" si="0">D8-C8</f>
+        <f t="shared" ref="D9:U9" si="0">D8-C8</f>
         <v>0.25</v>
       </c>
       <c r="E9">
@@ -734,12 +835,8 @@
         <f t="shared" si="0"/>
         <v>0.25</v>
       </c>
-      <c r="V9">
-        <f t="shared" si="0"/>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>1</v>
       </c>
@@ -803,131 +900,124 @@
       <c r="U10">
         <v>1</v>
       </c>
-      <c r="V10">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B11" s="3">
         <f>EXP(-interest_rate*B8)</f>
-        <v>1</v>
+        <v>0.99252805481913842</v>
       </c>
       <c r="C11" s="3">
-        <f>EXP(-interest_rate*C8)</f>
-        <v>0.99252805481913842</v>
+        <f t="shared" ref="C11:U11" si="1">EXP(-interest_rate*C8)</f>
+        <v>0.98511193960306265</v>
       </c>
       <c r="D11" s="3">
-        <f>EXP(-interest_rate*D8)</f>
-        <v>0.98511193960306265</v>
+        <f t="shared" si="1"/>
+        <v>0.97775123719333634</v>
       </c>
       <c r="E11" s="3">
-        <f>EXP(-interest_rate*E8)</f>
-        <v>0.97775123719333634</v>
+        <f t="shared" si="1"/>
+        <v>0.97044553354850815</v>
       </c>
       <c r="F11" s="3">
-        <f>EXP(-interest_rate*F8)</f>
-        <v>0.97044553354850815</v>
+        <f t="shared" si="1"/>
+        <v>0.96319441772082182</v>
       </c>
       <c r="G11" s="3">
-        <f>EXP(-interest_rate*G8)</f>
-        <v>0.96319441772082182</v>
+        <f t="shared" si="1"/>
+        <v>0.95599748183309996</v>
       </c>
       <c r="H11" s="3">
-        <f>EXP(-interest_rate*H8)</f>
-        <v>0.95599748183309996</v>
+        <f t="shared" si="1"/>
+        <v>0.94885432105580125</v>
       </c>
       <c r="I11" s="3">
-        <f>EXP(-interest_rate*I8)</f>
-        <v>0.94885432105580125</v>
+        <f t="shared" si="1"/>
+        <v>0.94176453358424872</v>
       </c>
       <c r="J11" s="3">
-        <f>EXP(-interest_rate*J8)</f>
-        <v>0.94176453358424872</v>
+        <f t="shared" si="1"/>
+        <v>0.93472772061602749</v>
       </c>
       <c r="K11" s="3">
-        <f>EXP(-interest_rate*K8)</f>
-        <v>0.93472772061602749</v>
+        <f t="shared" si="1"/>
+        <v>0.92774348632855286</v>
       </c>
       <c r="L11" s="3">
-        <f>EXP(-interest_rate*L8)</f>
-        <v>0.92774348632855286</v>
+        <f t="shared" si="1"/>
+        <v>0.92081143785680453</v>
       </c>
       <c r="M11" s="3">
-        <f>EXP(-interest_rate*M8)</f>
-        <v>0.92081143785680453</v>
+        <f t="shared" si="1"/>
+        <v>0.91393118527122819</v>
       </c>
       <c r="N11" s="3">
-        <f>EXP(-interest_rate*N8)</f>
-        <v>0.91393118527122819</v>
+        <f t="shared" si="1"/>
+        <v>0.90710234155580172</v>
       </c>
       <c r="O11" s="3">
-        <f>EXP(-interest_rate*O8)</f>
-        <v>0.90710234155580172</v>
+        <f t="shared" si="1"/>
+        <v>0.90032452258626561</v>
       </c>
       <c r="P11" s="3">
-        <f>EXP(-interest_rate*P8)</f>
-        <v>0.90032452258626561</v>
+        <f t="shared" si="1"/>
+        <v>0.89359734710851568</v>
       </c>
       <c r="Q11" s="3">
-        <f>EXP(-interest_rate*Q8)</f>
-        <v>0.89359734710851568</v>
+        <f t="shared" si="1"/>
+        <v>0.88692043671715748</v>
       </c>
       <c r="R11" s="3">
-        <f>EXP(-interest_rate*R8)</f>
-        <v>0.88692043671715748</v>
+        <f t="shared" si="1"/>
+        <v>0.88029341583422116</v>
       </c>
       <c r="S11" s="3">
-        <f>EXP(-interest_rate*S8)</f>
-        <v>0.88029341583422116</v>
+        <f t="shared" si="1"/>
+        <v>0.87371591168803442</v>
       </c>
       <c r="T11" s="3">
-        <f>EXP(-interest_rate*T8)</f>
-        <v>0.87371591168803442</v>
+        <f t="shared" si="1"/>
+        <v>0.86718755429225491</v>
       </c>
       <c r="U11" s="3">
         <f>EXP(-interest_rate*U8)</f>
-        <v>0.86718755429225491</v>
-      </c>
-      <c r="V11" s="3">
-        <f>EXP(-interest_rate*V8)</f>
         <v>0.86070797642505781</v>
       </c>
     </row>
-    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="C13">
-        <f>C9*C11</f>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <f>B9*B11</f>
         <v>0.2481320137047846</v>
       </c>
     </row>
-    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A15" s="6">
-        <f>SUMPRODUCT(C9:V9,C10:V10,C11:V11)</f>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="10">
+        <f>SUMPRODUCT(B9:U9,B10:U10,B11:U11)</f>
         <v>4.625677713909484</v>
       </c>
     </row>
-    <row r="18" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B18" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="B18" s="5" t="s">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="19" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
-    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="19" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="20" spans="1:21" x14ac:dyDescent="0.25">
       <c r="I20" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B21" t="s">
         <v>0</v>
       </c>
@@ -935,7 +1025,7 @@
         <v>0.03</v>
       </c>
     </row>
-    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
         <v>1.49</v>
       </c>
@@ -952,165 +1042,162 @@
         <v>9</v>
       </c>
     </row>
-    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
+        <v>5</v>
+      </c>
+      <c r="B25">
+        <v>0.25</v>
+      </c>
+      <c r="C25">
+        <v>0.5</v>
+      </c>
+      <c r="D25">
+        <v>0.75</v>
+      </c>
+      <c r="E25">
+        <v>1</v>
+      </c>
+      <c r="F25">
+        <v>1.25</v>
+      </c>
+      <c r="G25">
+        <v>1.5</v>
+      </c>
+      <c r="H25">
+        <v>1.75</v>
+      </c>
+      <c r="I25">
+        <v>2</v>
+      </c>
+      <c r="J25">
+        <v>2.25</v>
+      </c>
+      <c r="K25">
+        <v>2.5</v>
+      </c>
+      <c r="L25">
+        <v>2.75</v>
+      </c>
+      <c r="M25">
+        <v>3</v>
+      </c>
+      <c r="N25">
+        <v>3.25</v>
+      </c>
+      <c r="O25">
+        <v>3.5</v>
+      </c>
+      <c r="P25">
+        <v>3.75</v>
+      </c>
+      <c r="Q25">
+        <v>4</v>
+      </c>
+      <c r="R25">
+        <v>4.25</v>
+      </c>
+      <c r="S25">
+        <v>4.5</v>
+      </c>
+      <c r="T25">
+        <v>4.75</v>
+      </c>
+      <c r="U25">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
         <v>6</v>
       </c>
-      <c r="B25">
-        <v>0</v>
-      </c>
-      <c r="C25">
-        <v>0.25</v>
-      </c>
-      <c r="D25">
-        <v>0.5</v>
-      </c>
-      <c r="E25">
-        <v>0.75</v>
-      </c>
-      <c r="F25">
-        <v>1</v>
-      </c>
-      <c r="G25">
-        <v>1.25</v>
-      </c>
-      <c r="H25">
-        <v>1.5</v>
-      </c>
-      <c r="I25">
-        <v>1.75</v>
-      </c>
-      <c r="J25">
-        <v>2</v>
-      </c>
-      <c r="K25">
-        <v>2.25</v>
-      </c>
-      <c r="L25">
-        <v>2.5</v>
-      </c>
-      <c r="M25">
-        <v>2.75</v>
-      </c>
-      <c r="N25">
-        <v>3</v>
-      </c>
-      <c r="O25">
-        <v>3.25</v>
-      </c>
-      <c r="P25">
-        <v>3.5</v>
-      </c>
-      <c r="Q25">
-        <v>3.75</v>
-      </c>
-      <c r="R25">
-        <v>4</v>
-      </c>
-      <c r="S25">
-        <v>4.25</v>
-      </c>
-      <c r="T25">
-        <v>4.5</v>
-      </c>
-      <c r="U25">
-        <v>4.75</v>
-      </c>
-      <c r="V25">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>7</v>
+      <c r="B26">
+        <f>B25</f>
+        <v>0.25</v>
       </c>
       <c r="C26">
-        <f>C25-B25</f>
+        <f t="shared" ref="C26" si="2">C25-B25</f>
         <v>0.25</v>
       </c>
       <c r="D26">
-        <f t="shared" ref="D26" si="1">D25-C25</f>
+        <f t="shared" ref="D26" si="3">D25-C25</f>
         <v>0.25</v>
       </c>
       <c r="E26">
-        <f t="shared" ref="E26" si="2">E25-D25</f>
+        <f t="shared" ref="E26" si="4">E25-D25</f>
         <v>0.25</v>
       </c>
       <c r="F26">
-        <f t="shared" ref="F26" si="3">F25-E25</f>
+        <f t="shared" ref="F26" si="5">F25-E25</f>
         <v>0.25</v>
       </c>
       <c r="G26">
-        <f t="shared" ref="G26" si="4">G25-F25</f>
+        <f t="shared" ref="G26" si="6">G25-F25</f>
         <v>0.25</v>
       </c>
       <c r="H26">
-        <f t="shared" ref="H26" si="5">H25-G25</f>
+        <f t="shared" ref="H26" si="7">H25-G25</f>
         <v>0.25</v>
       </c>
       <c r="I26">
-        <f t="shared" ref="I26" si="6">I25-H25</f>
+        <f t="shared" ref="I26" si="8">I25-H25</f>
         <v>0.25</v>
       </c>
       <c r="J26">
-        <f t="shared" ref="J26" si="7">J25-I25</f>
+        <f t="shared" ref="J26" si="9">J25-I25</f>
         <v>0.25</v>
       </c>
       <c r="K26">
-        <f t="shared" ref="K26" si="8">K25-J25</f>
+        <f t="shared" ref="K26" si="10">K25-J25</f>
         <v>0.25</v>
       </c>
       <c r="L26">
-        <f t="shared" ref="L26" si="9">L25-K25</f>
+        <f t="shared" ref="L26" si="11">L25-K25</f>
         <v>0.25</v>
       </c>
       <c r="M26">
-        <f t="shared" ref="M26" si="10">M25-L25</f>
+        <f t="shared" ref="M26" si="12">M25-L25</f>
         <v>0.25</v>
       </c>
       <c r="N26">
-        <f t="shared" ref="N26" si="11">N25-M25</f>
+        <f t="shared" ref="N26" si="13">N25-M25</f>
         <v>0.25</v>
       </c>
       <c r="O26">
-        <f t="shared" ref="O26" si="12">O25-N25</f>
+        <f t="shared" ref="O26" si="14">O25-N25</f>
         <v>0.25</v>
       </c>
       <c r="P26">
-        <f t="shared" ref="P26" si="13">P25-O25</f>
+        <f t="shared" ref="P26" si="15">P25-O25</f>
         <v>0.25</v>
       </c>
       <c r="Q26">
-        <f t="shared" ref="Q26" si="14">Q25-P25</f>
+        <f t="shared" ref="Q26" si="16">Q25-P25</f>
         <v>0.25</v>
       </c>
       <c r="R26">
-        <f t="shared" ref="R26" si="15">R25-Q25</f>
+        <f t="shared" ref="R26" si="17">R25-Q25</f>
         <v>0.25</v>
       </c>
       <c r="S26">
-        <f t="shared" ref="S26" si="16">S25-R25</f>
+        <f t="shared" ref="S26" si="18">S25-R25</f>
         <v>0.25</v>
       </c>
       <c r="T26">
-        <f t="shared" ref="T26" si="17">T25-S25</f>
+        <f t="shared" ref="T26" si="19">T25-S25</f>
         <v>0.25</v>
       </c>
       <c r="U26">
-        <f t="shared" ref="U26" si="18">U25-T25</f>
-        <v>0.25</v>
-      </c>
-      <c r="V26">
-        <f t="shared" ref="V26" si="19">V25-U25</f>
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+        <f t="shared" ref="U26" si="20">U25-T25</f>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>1</v>
       </c>
@@ -1130,7 +1217,7 @@
         <v>1</v>
       </c>
       <c r="G27">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H27">
         <v>0.8</v>
@@ -1145,13 +1232,13 @@
         <v>0.8</v>
       </c>
       <c r="L27">
-        <v>0.8</v>
+        <v>0.6</v>
       </c>
       <c r="M27">
         <v>0.6</v>
       </c>
       <c r="N27">
-        <v>0.6</v>
+        <v>0.4</v>
       </c>
       <c r="O27">
         <v>0.4</v>
@@ -1174,122 +1261,115 @@
       <c r="U27">
         <v>0.4</v>
       </c>
-      <c r="V27">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B28" s="3">
-        <f>EXP(-interest_rate*B25)</f>
-        <v>1</v>
+        <f t="shared" ref="B28:U28" si="21">EXP(-interest_rate*B25)</f>
+        <v>0.99252805481913842</v>
       </c>
       <c r="C28" s="3">
-        <f>EXP(-interest_rate*C25)</f>
-        <v>0.99252805481913842</v>
+        <f t="shared" si="21"/>
+        <v>0.98511193960306265</v>
       </c>
       <c r="D28" s="3">
-        <f>EXP(-interest_rate*D25)</f>
-        <v>0.98511193960306265</v>
+        <f t="shared" si="21"/>
+        <v>0.97775123719333634</v>
       </c>
       <c r="E28" s="3">
-        <f>EXP(-interest_rate*E25)</f>
-        <v>0.97775123719333634</v>
+        <f t="shared" si="21"/>
+        <v>0.97044553354850815</v>
       </c>
       <c r="F28" s="3">
-        <f>EXP(-interest_rate*F25)</f>
-        <v>0.97044553354850815</v>
+        <f t="shared" si="21"/>
+        <v>0.96319441772082182</v>
       </c>
       <c r="G28" s="3">
-        <f>EXP(-interest_rate*G25)</f>
-        <v>0.96319441772082182</v>
+        <f t="shared" si="21"/>
+        <v>0.95599748183309996</v>
       </c>
       <c r="H28" s="3">
-        <f>EXP(-interest_rate*H25)</f>
-        <v>0.95599748183309996</v>
+        <f t="shared" si="21"/>
+        <v>0.94885432105580125</v>
       </c>
       <c r="I28" s="3">
-        <f>EXP(-interest_rate*I25)</f>
-        <v>0.94885432105580125</v>
+        <f t="shared" si="21"/>
+        <v>0.94176453358424872</v>
       </c>
       <c r="J28" s="3">
-        <f>EXP(-interest_rate*J25)</f>
-        <v>0.94176453358424872</v>
+        <f t="shared" si="21"/>
+        <v>0.93472772061602749</v>
       </c>
       <c r="K28" s="3">
-        <f>EXP(-interest_rate*K25)</f>
-        <v>0.93472772061602749</v>
+        <f t="shared" si="21"/>
+        <v>0.92774348632855286</v>
       </c>
       <c r="L28" s="3">
-        <f>EXP(-interest_rate*L25)</f>
-        <v>0.92774348632855286</v>
+        <f t="shared" si="21"/>
+        <v>0.92081143785680453</v>
       </c>
       <c r="M28" s="3">
-        <f>EXP(-interest_rate*M25)</f>
-        <v>0.92081143785680453</v>
+        <f t="shared" si="21"/>
+        <v>0.91393118527122819</v>
       </c>
       <c r="N28" s="3">
-        <f>EXP(-interest_rate*N25)</f>
-        <v>0.91393118527122819</v>
+        <f t="shared" si="21"/>
+        <v>0.90710234155580172</v>
       </c>
       <c r="O28" s="3">
-        <f>EXP(-interest_rate*O25)</f>
-        <v>0.90710234155580172</v>
+        <f t="shared" si="21"/>
+        <v>0.90032452258626561</v>
       </c>
       <c r="P28" s="3">
-        <f>EXP(-interest_rate*P25)</f>
-        <v>0.90032452258626561</v>
+        <f t="shared" si="21"/>
+        <v>0.89359734710851568</v>
       </c>
       <c r="Q28" s="3">
-        <f>EXP(-interest_rate*Q25)</f>
-        <v>0.89359734710851568</v>
+        <f t="shared" si="21"/>
+        <v>0.88692043671715748</v>
       </c>
       <c r="R28" s="3">
-        <f>EXP(-interest_rate*R25)</f>
-        <v>0.88692043671715748</v>
+        <f t="shared" si="21"/>
+        <v>0.88029341583422116</v>
       </c>
       <c r="S28" s="3">
-        <f>EXP(-interest_rate*S25)</f>
-        <v>0.88029341583422116</v>
+        <f t="shared" si="21"/>
+        <v>0.87371591168803442</v>
       </c>
       <c r="T28" s="3">
-        <f>EXP(-interest_rate*T25)</f>
-        <v>0.87371591168803442</v>
+        <f t="shared" si="21"/>
+        <v>0.86718755429225491</v>
       </c>
       <c r="U28" s="3">
-        <f>EXP(-interest_rate*U25)</f>
-        <v>0.86718755429225491</v>
-      </c>
-      <c r="V28" s="3">
-        <f>EXP(-interest_rate*V25)</f>
+        <f t="shared" si="21"/>
         <v>0.86070797642505781</v>
       </c>
     </row>
-    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A31" s="4" t="s">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32" spans="1:21" x14ac:dyDescent="0.25">
       <c r="A32" s="6">
-        <f>SUMPRODUCT(C26:V26,C27:V27,C28:V28)</f>
+        <f>SUMPRODUCT(B26:U26,B27:U27,B28:U28)</f>
         <v>3.1462716484946984</v>
       </c>
     </row>
     <row r="35" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A35" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B35" s="5" t="s">
         <v>11</v>
-      </c>
-      <c r="B35" s="5" t="s">
-        <v>12</v>
       </c>
     </row>
     <row r="36" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
       <c r="I37" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -1319,10 +1399,10 @@
     </row>
     <row r="41" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="P41" s="9" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="Q41" s="9"/>
       <c r="R41" s="9"/>
@@ -1333,154 +1413,151 @@
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B42">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="C42">
-        <v>0.25</v>
+        <v>0.5</v>
       </c>
       <c r="D42">
-        <v>0.5</v>
+        <v>0.75</v>
       </c>
       <c r="E42">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="F42">
-        <v>1</v>
+        <v>1.25</v>
       </c>
       <c r="G42">
-        <v>1.25</v>
+        <v>1.5</v>
       </c>
       <c r="H42">
-        <v>1.5</v>
+        <v>1.75</v>
       </c>
       <c r="I42">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="J42">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="K42">
-        <v>2.25</v>
+        <v>2.5</v>
       </c>
       <c r="L42">
-        <v>2.5</v>
-      </c>
-      <c r="M42">
         <v>2.75</v>
       </c>
-      <c r="N42">
+      <c r="M42" s="7">
         <v>3</v>
       </c>
-      <c r="O42">
+      <c r="N42" s="7">
         <v>3.25</v>
       </c>
+      <c r="O42" s="7">
+        <v>3.5</v>
+      </c>
       <c r="P42" s="7">
-        <v>3.5</v>
+        <v>3.75</v>
       </c>
       <c r="Q42" s="7">
-        <v>3.75</v>
+        <v>4</v>
       </c>
       <c r="R42" s="7">
-        <v>4</v>
+        <v>4.25</v>
       </c>
       <c r="S42" s="7">
-        <v>4.25</v>
+        <v>4.5</v>
       </c>
       <c r="T42" s="7">
-        <v>4.5</v>
+        <v>4.75</v>
       </c>
       <c r="U42" s="7">
-        <v>4.75</v>
-      </c>
-      <c r="V42" s="7">
         <v>5</v>
       </c>
     </row>
     <row r="43" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>7</v>
+        <v>6</v>
+      </c>
+      <c r="B43">
+        <f>B42</f>
+        <v>0.25</v>
       </c>
       <c r="C43">
-        <f>C42-B42</f>
+        <f t="shared" ref="C43" si="22">C42-B42</f>
         <v>0.25</v>
       </c>
       <c r="D43">
-        <f t="shared" ref="D43" si="20">D42-C42</f>
+        <f t="shared" ref="D43" si="23">D42-C42</f>
         <v>0.25</v>
       </c>
       <c r="E43">
-        <f t="shared" ref="E43" si="21">E42-D42</f>
+        <f t="shared" ref="E43" si="24">E42-D42</f>
         <v>0.25</v>
       </c>
       <c r="F43">
-        <f t="shared" ref="F43" si="22">F42-E42</f>
+        <f t="shared" ref="F43" si="25">F42-E42</f>
         <v>0.25</v>
       </c>
       <c r="G43">
-        <f t="shared" ref="G43" si="23">G42-F42</f>
+        <f t="shared" ref="G43" si="26">G42-F42</f>
         <v>0.25</v>
       </c>
       <c r="H43">
-        <f t="shared" ref="H43" si="24">H42-G42</f>
+        <f t="shared" ref="H43" si="27">H42-G42</f>
         <v>0.25</v>
       </c>
       <c r="I43">
-        <f t="shared" ref="I43" si="25">I42-H42</f>
+        <f t="shared" ref="I43" si="28">I42-H42</f>
         <v>0.25</v>
       </c>
       <c r="J43">
-        <f t="shared" ref="J43" si="26">J42-I42</f>
+        <f t="shared" ref="J43" si="29">J42-I42</f>
         <v>0.25</v>
       </c>
       <c r="K43">
-        <f t="shared" ref="K43" si="27">K42-J42</f>
+        <f t="shared" ref="K43" si="30">K42-J42</f>
         <v>0.25</v>
       </c>
       <c r="L43">
-        <f t="shared" ref="L43" si="28">L42-K42</f>
-        <v>0.25</v>
-      </c>
-      <c r="M43">
-        <f t="shared" ref="M43" si="29">M42-L42</f>
-        <v>0.25</v>
-      </c>
-      <c r="N43">
-        <f t="shared" ref="N43" si="30">N42-M42</f>
-        <v>0.25</v>
-      </c>
-      <c r="O43">
-        <f t="shared" ref="O43" si="31">O42-N42</f>
+        <f t="shared" ref="L43" si="31">L42-K42</f>
+        <v>0.25</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" ref="M43" si="32">M42-L42</f>
+        <v>0.25</v>
+      </c>
+      <c r="N43" s="7">
+        <f t="shared" ref="N43" si="33">N42-M42</f>
+        <v>0.25</v>
+      </c>
+      <c r="O43" s="7">
+        <f t="shared" ref="O43" si="34">O42-N42</f>
         <v>0.25</v>
       </c>
       <c r="P43" s="7">
-        <f t="shared" ref="P43" si="32">P42-O42</f>
+        <f t="shared" ref="P43" si="35">P42-O42</f>
         <v>0.25</v>
       </c>
       <c r="Q43" s="7">
-        <f t="shared" ref="Q43" si="33">Q42-P42</f>
+        <f t="shared" ref="Q43" si="36">Q42-P42</f>
         <v>0.25</v>
       </c>
       <c r="R43" s="7">
-        <f t="shared" ref="R43" si="34">R42-Q42</f>
+        <f t="shared" ref="R43" si="37">R42-Q42</f>
         <v>0.25</v>
       </c>
       <c r="S43" s="7">
-        <f t="shared" ref="S43" si="35">S42-R42</f>
+        <f t="shared" ref="S43" si="38">S42-R42</f>
         <v>0.25</v>
       </c>
       <c r="T43" s="7">
-        <f t="shared" ref="T43" si="36">T42-S42</f>
+        <f t="shared" ref="T43" si="39">T42-S42</f>
         <v>0.25</v>
       </c>
       <c r="U43" s="7">
-        <f t="shared" ref="U43" si="37">U42-T42</f>
-        <v>0.25</v>
-      </c>
-      <c r="V43" s="7">
-        <f t="shared" ref="V43" si="38">V42-U42</f>
+        <f t="shared" ref="U43" si="40">U42-T42</f>
         <v>0.25</v>
       </c>
     </row>
@@ -1504,7 +1581,7 @@
         <v>1</v>
       </c>
       <c r="G44">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="H44">
         <v>0.8</v>
@@ -1518,16 +1595,16 @@
       <c r="K44">
         <v>0.8</v>
       </c>
-      <c r="L44">
+      <c r="L44" s="11">
         <v>0.8</v>
       </c>
-      <c r="M44">
+      <c r="M44" s="7">
         <v>0.6</v>
       </c>
-      <c r="N44">
-        <v>0.6</v>
-      </c>
-      <c r="O44">
+      <c r="N44" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="O44" s="7">
         <v>0.4</v>
       </c>
       <c r="P44" s="7">
@@ -1546,110 +1623,103 @@
         <v>0.4</v>
       </c>
       <c r="U44" s="7">
-        <v>0.4</v>
-      </c>
-      <c r="V44" s="7">
         <v>0.4</v>
       </c>
     </row>
     <row r="45" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>2</v>
+        <v>15</v>
       </c>
       <c r="B45" s="3">
-        <f>EXP(-interest_rate*B42)</f>
-        <v>1</v>
+        <f t="shared" ref="B45:U45" si="41">EXP(-interest_rate*B42)</f>
+        <v>0.99252805481913842</v>
       </c>
       <c r="C45" s="3">
-        <f>EXP(-interest_rate*C42)</f>
-        <v>0.99252805481913842</v>
+        <f t="shared" si="41"/>
+        <v>0.98511193960306265</v>
       </c>
       <c r="D45" s="3">
-        <f>EXP(-interest_rate*D42)</f>
-        <v>0.98511193960306265</v>
+        <f t="shared" si="41"/>
+        <v>0.97775123719333634</v>
       </c>
       <c r="E45" s="3">
-        <f>EXP(-interest_rate*E42)</f>
-        <v>0.97775123719333634</v>
+        <f t="shared" si="41"/>
+        <v>0.97044553354850815</v>
       </c>
       <c r="F45" s="3">
-        <f>EXP(-interest_rate*F42)</f>
-        <v>0.97044553354850815</v>
+        <f t="shared" si="41"/>
+        <v>0.96319441772082182</v>
       </c>
       <c r="G45" s="3">
-        <f>EXP(-interest_rate*G42)</f>
-        <v>0.96319441772082182</v>
+        <f t="shared" si="41"/>
+        <v>0.95599748183309996</v>
       </c>
       <c r="H45" s="3">
-        <f>EXP(-interest_rate*H42)</f>
-        <v>0.95599748183309996</v>
+        <f t="shared" si="41"/>
+        <v>0.94885432105580125</v>
       </c>
       <c r="I45" s="3">
-        <f>EXP(-interest_rate*I42)</f>
-        <v>0.94885432105580125</v>
+        <f t="shared" si="41"/>
+        <v>0.94176453358424872</v>
       </c>
       <c r="J45" s="3">
-        <f>EXP(-interest_rate*J42)</f>
-        <v>0.94176453358424872</v>
+        <f t="shared" si="41"/>
+        <v>0.93472772061602749</v>
       </c>
       <c r="K45" s="3">
-        <f>EXP(-interest_rate*K42)</f>
-        <v>0.93472772061602749</v>
+        <f t="shared" si="41"/>
+        <v>0.92774348632855286</v>
       </c>
       <c r="L45" s="3">
-        <f>EXP(-interest_rate*L42)</f>
-        <v>0.92774348632855286</v>
-      </c>
-      <c r="M45" s="3">
-        <f>EXP(-interest_rate*M42)</f>
+        <f t="shared" si="41"/>
         <v>0.92081143785680453</v>
       </c>
-      <c r="N45" s="3">
-        <f>EXP(-interest_rate*N42)</f>
+      <c r="M45" s="8">
+        <f t="shared" si="41"/>
         <v>0.91393118527122819</v>
       </c>
-      <c r="O45" s="3">
-        <f>EXP(-interest_rate*O42)</f>
+      <c r="N45" s="8">
+        <f t="shared" si="41"/>
         <v>0.90710234155580172</v>
       </c>
+      <c r="O45" s="8">
+        <f t="shared" si="41"/>
+        <v>0.90032452258626561</v>
+      </c>
       <c r="P45" s="8">
-        <f>EXP(-interest_rate*P42)</f>
-        <v>0.90032452258626561</v>
+        <f t="shared" si="41"/>
+        <v>0.89359734710851568</v>
       </c>
       <c r="Q45" s="8">
-        <f>EXP(-interest_rate*Q42)</f>
-        <v>0.89359734710851568</v>
+        <f t="shared" si="41"/>
+        <v>0.88692043671715748</v>
       </c>
       <c r="R45" s="8">
-        <f>EXP(-interest_rate*R42)</f>
-        <v>0.88692043671715748</v>
+        <f t="shared" si="41"/>
+        <v>0.88029341583422116</v>
       </c>
       <c r="S45" s="8">
-        <f>EXP(-interest_rate*S42)</f>
-        <v>0.88029341583422116</v>
+        <f t="shared" si="41"/>
+        <v>0.87371591168803442</v>
       </c>
       <c r="T45" s="8">
-        <f>EXP(-interest_rate*T42)</f>
-        <v>0.87371591168803442</v>
+        <f t="shared" si="41"/>
+        <v>0.86718755429225491</v>
       </c>
       <c r="U45" s="8">
-        <f>EXP(-interest_rate*U42)</f>
-        <v>0.86718755429225491</v>
-      </c>
-      <c r="V45" s="8">
-        <f>EXP(-interest_rate*V42)</f>
+        <f t="shared" si="41"/>
         <v>0.86070797642505781</v>
       </c>
     </row>
     <row r="48" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A48" s="4" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
     </row>
     <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" s="6">
-        <f>SUMPRODUCT(C43:O43,C44:O44,C45:O45)</f>
-        <v>2.5299969320295479</v>
+      <c r="A49" s="3">
+        <f>SUMPRODUCT(B43:L43,B44:L44,B45:L45)</f>
+        <v>2.3482375919761238</v>
       </c>
     </row>
   </sheetData>
@@ -1657,17 +1727,1366 @@
     <mergeCell ref="P41:V41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4961A-93CE-45A5-A686-FF67CFAA7CBA}">
-  <dimension ref="A1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4961A-93CE-45A5-A686-FF67CFAA7CBA}">
+  <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N19" sqref="N19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13" customWidth="1"/>
+    <col min="11" max="11" width="13" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A1" s="5" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="5" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="3" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I3" t="s">
+        <v>3</v>
+      </c>
+      <c r="K3" t="s">
+        <v>18</v>
+      </c>
+      <c r="L3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>0</v>
+      </c>
+      <c r="I4" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B5" s="1">
+        <v>5.5</v>
+      </c>
+      <c r="C5" s="1">
+        <v>6</v>
+      </c>
+      <c r="D5" s="1">
+        <v>7</v>
+      </c>
+      <c r="E5" s="1">
+        <v>8</v>
+      </c>
+      <c r="F5" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B8">
+        <v>0.25</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+      <c r="D8">
+        <v>0.75</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>1.25</v>
+      </c>
+      <c r="G8">
+        <v>1.5</v>
+      </c>
+      <c r="H8">
+        <v>1.75</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>2.25</v>
+      </c>
+      <c r="K8">
+        <v>2.5</v>
+      </c>
+      <c r="L8">
+        <v>2.75</v>
+      </c>
+      <c r="M8">
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <v>3.25</v>
+      </c>
+      <c r="O8">
+        <v>3.5</v>
+      </c>
+      <c r="P8">
+        <v>3.75</v>
+      </c>
+      <c r="Q8">
+        <v>4</v>
+      </c>
+      <c r="R8">
+        <v>4.25</v>
+      </c>
+      <c r="S8">
+        <v>4.5</v>
+      </c>
+      <c r="T8">
+        <v>4.75</v>
+      </c>
+      <c r="U8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <f>B8</f>
+        <v>0.25</v>
+      </c>
+      <c r="C9">
+        <f>C8-B8</f>
+        <v>0.25</v>
+      </c>
+      <c r="D9">
+        <f t="shared" ref="D9:U9" si="0">D8-C8</f>
+        <v>0.25</v>
+      </c>
+      <c r="E9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="F9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="H9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="I9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="J9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="M9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="O9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="P9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="R9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="S9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="T9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+      <c r="U9">
+        <f t="shared" si="0"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>1</v>
+      </c>
+      <c r="B10">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>1</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>1</v>
+      </c>
+      <c r="G10">
+        <v>1</v>
+      </c>
+      <c r="H10">
+        <v>1</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>1</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>1</v>
+      </c>
+      <c r="N10">
+        <v>1</v>
+      </c>
+      <c r="O10">
+        <v>1</v>
+      </c>
+      <c r="P10">
+        <v>1</v>
+      </c>
+      <c r="Q10">
+        <v>1</v>
+      </c>
+      <c r="R10">
+        <v>1</v>
+      </c>
+      <c r="S10">
+        <v>1</v>
+      </c>
+      <c r="T10">
+        <v>1</v>
+      </c>
+      <c r="U10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>17</v>
+      </c>
+      <c r="B11">
+        <f>1-B10</f>
+        <v>0</v>
+      </c>
+      <c r="C11">
+        <f>B10-C10</f>
+        <v>0</v>
+      </c>
+      <c r="D11">
+        <f t="shared" ref="D11:U11" si="1">C10-D10</f>
+        <v>0</v>
+      </c>
+      <c r="E11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="F11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="G11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="H11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="I11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="M11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="O11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="P11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="Q11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="R11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="S11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+      <c r="U11">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>15</v>
+      </c>
+      <c r="B12" s="3">
+        <f>EXP(-interest_rate*B8)</f>
+        <v>0.99252805481913842</v>
+      </c>
+      <c r="C12" s="3">
+        <f t="shared" ref="C12:T12" si="2">EXP(-interest_rate*C8)</f>
+        <v>0.98511193960306265</v>
+      </c>
+      <c r="D12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97775123719333634</v>
+      </c>
+      <c r="E12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.97044553354850815</v>
+      </c>
+      <c r="F12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.96319441772082182</v>
+      </c>
+      <c r="G12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.95599748183309996</v>
+      </c>
+      <c r="H12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94885432105580125</v>
+      </c>
+      <c r="I12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.94176453358424872</v>
+      </c>
+      <c r="J12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.93472772061602749</v>
+      </c>
+      <c r="K12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92774348632855286</v>
+      </c>
+      <c r="L12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.92081143785680453</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.91393118527122819</v>
+      </c>
+      <c r="N12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90710234155580172</v>
+      </c>
+      <c r="O12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.90032452258626561</v>
+      </c>
+      <c r="P12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.89359734710851568</v>
+      </c>
+      <c r="Q12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88692043671715748</v>
+      </c>
+      <c r="R12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.88029341583422116</v>
+      </c>
+      <c r="S12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.87371591168803442</v>
+      </c>
+      <c r="T12" s="3">
+        <f t="shared" si="2"/>
+        <v>0.86718755429225491</v>
+      </c>
+      <c r="U12" s="3">
+        <f>EXP(-interest_rate*U8)</f>
+        <v>0.86070797642505781</v>
+      </c>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="16" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A16" s="10">
+        <f>SUMPRODUCT(B9:U9,B11:U11,B12:U12)</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:21" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="B19" s="5" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="20" spans="1:21" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="21" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="I21" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B22" t="s">
+        <v>0</v>
+      </c>
+      <c r="I22" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="23" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="B23" s="1">
+        <v>1.49</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E23" s="1">
+        <v>7</v>
+      </c>
+      <c r="F23" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26">
+        <v>0.25</v>
+      </c>
+      <c r="C26">
+        <v>0.5</v>
+      </c>
+      <c r="D26">
+        <v>0.75</v>
+      </c>
+      <c r="E26">
+        <v>1</v>
+      </c>
+      <c r="F26">
+        <v>1.25</v>
+      </c>
+      <c r="G26">
+        <v>1.5</v>
+      </c>
+      <c r="H26">
+        <v>1.75</v>
+      </c>
+      <c r="I26">
+        <v>2</v>
+      </c>
+      <c r="J26">
+        <v>2.25</v>
+      </c>
+      <c r="K26">
+        <v>2.5</v>
+      </c>
+      <c r="L26">
+        <v>2.75</v>
+      </c>
+      <c r="M26">
+        <v>3</v>
+      </c>
+      <c r="N26">
+        <v>3.25</v>
+      </c>
+      <c r="O26">
+        <v>3.5</v>
+      </c>
+      <c r="P26">
+        <v>3.75</v>
+      </c>
+      <c r="Q26">
+        <v>4</v>
+      </c>
+      <c r="R26">
+        <v>4.25</v>
+      </c>
+      <c r="S26">
+        <v>4.5</v>
+      </c>
+      <c r="T26">
+        <v>4.75</v>
+      </c>
+      <c r="U26">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>6</v>
+      </c>
+      <c r="B27">
+        <f>B26</f>
+        <v>0.25</v>
+      </c>
+      <c r="C27">
+        <f t="shared" ref="C27:U27" si="3">C26-B26</f>
+        <v>0.25</v>
+      </c>
+      <c r="D27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="E27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="F27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="G27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="H27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="I27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="J27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="M27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="O27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="P27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="R27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="S27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="T27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+      <c r="U27">
+        <f t="shared" si="3"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="28" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1</v>
+      </c>
+      <c r="B28">
+        <v>1</v>
+      </c>
+      <c r="C28">
+        <v>1</v>
+      </c>
+      <c r="D28">
+        <v>1</v>
+      </c>
+      <c r="E28">
+        <v>1</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.8</v>
+      </c>
+      <c r="H28">
+        <v>0.8</v>
+      </c>
+      <c r="I28">
+        <v>0.8</v>
+      </c>
+      <c r="J28">
+        <v>0.8</v>
+      </c>
+      <c r="K28">
+        <v>0.8</v>
+      </c>
+      <c r="L28">
+        <v>0.6</v>
+      </c>
+      <c r="M28">
+        <v>0.6</v>
+      </c>
+      <c r="N28">
+        <v>0.4</v>
+      </c>
+      <c r="O28">
+        <v>0.4</v>
+      </c>
+      <c r="P28">
+        <v>0.4</v>
+      </c>
+      <c r="Q28">
+        <v>0.4</v>
+      </c>
+      <c r="R28">
+        <v>0.4</v>
+      </c>
+      <c r="S28">
+        <v>0.4</v>
+      </c>
+      <c r="T28">
+        <v>0.4</v>
+      </c>
+      <c r="U28">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>17</v>
+      </c>
+      <c r="B29">
+        <f>1-B28</f>
+        <v>0</v>
+      </c>
+      <c r="C29">
+        <f>B28-C28</f>
+        <v>0</v>
+      </c>
+      <c r="D29">
+        <f t="shared" ref="D29:U29" si="4">C28-D28</f>
+        <v>0</v>
+      </c>
+      <c r="E29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="F29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="G29">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="I29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="4"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="M29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="4"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="O29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="P29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="Q29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="R29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="S29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="T29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+      <c r="U29">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:21" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>15</v>
+      </c>
+      <c r="B30" s="3">
+        <f>EXP(-interest_rate*B26)</f>
+        <v>0.99252805481913842</v>
+      </c>
+      <c r="C30" s="3">
+        <f>EXP(-interest_rate*C26)</f>
+        <v>0.98511193960306265</v>
+      </c>
+      <c r="D30" s="3">
+        <f>EXP(-interest_rate*D26)</f>
+        <v>0.97775123719333634</v>
+      </c>
+      <c r="E30" s="3">
+        <f>EXP(-interest_rate*E26)</f>
+        <v>0.97044553354850815</v>
+      </c>
+      <c r="F30" s="3">
+        <f>EXP(-interest_rate*F26)</f>
+        <v>0.96319441772082182</v>
+      </c>
+      <c r="G30" s="3">
+        <f>EXP(-interest_rate*G26)</f>
+        <v>0.95599748183309996</v>
+      </c>
+      <c r="H30" s="3">
+        <f>EXP(-interest_rate*H26)</f>
+        <v>0.94885432105580125</v>
+      </c>
+      <c r="I30" s="3">
+        <f>EXP(-interest_rate*I26)</f>
+        <v>0.94176453358424872</v>
+      </c>
+      <c r="J30" s="3">
+        <f>EXP(-interest_rate*J26)</f>
+        <v>0.93472772061602749</v>
+      </c>
+      <c r="K30" s="3">
+        <f>EXP(-interest_rate*K26)</f>
+        <v>0.92774348632855286</v>
+      </c>
+      <c r="L30" s="3">
+        <f>EXP(-interest_rate*L26)</f>
+        <v>0.92081143785680453</v>
+      </c>
+      <c r="M30" s="3">
+        <f>EXP(-interest_rate*M26)</f>
+        <v>0.91393118527122819</v>
+      </c>
+      <c r="N30" s="3">
+        <f>EXP(-interest_rate*N26)</f>
+        <v>0.90710234155580172</v>
+      </c>
+      <c r="O30" s="3">
+        <f>EXP(-interest_rate*O26)</f>
+        <v>0.90032452258626561</v>
+      </c>
+      <c r="P30" s="3">
+        <f>EXP(-interest_rate*P26)</f>
+        <v>0.89359734710851568</v>
+      </c>
+      <c r="Q30" s="3">
+        <f>EXP(-interest_rate*Q26)</f>
+        <v>0.88692043671715748</v>
+      </c>
+      <c r="R30" s="3">
+        <f>EXP(-interest_rate*R26)</f>
+        <v>0.88029341583422116</v>
+      </c>
+      <c r="S30" s="3">
+        <f>EXP(-interest_rate*S26)</f>
+        <v>0.87371591168803442</v>
+      </c>
+      <c r="T30" s="3">
+        <f>EXP(-interest_rate*T26)</f>
+        <v>0.86718755429225491</v>
+      </c>
+      <c r="U30" s="3">
+        <f>EXP(-interest_rate*U26)</f>
+        <v>0.86070797642505781</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="6">
+        <f>SUMPRODUCT(B27:U27,B29:U29,B30:U30)</f>
+        <v>0.13919556306228531</v>
+      </c>
+    </row>
+    <row r="37" spans="1:22" ht="20.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="B37" s="5" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="I39" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B40" t="s">
+        <v>0</v>
+      </c>
+      <c r="I40" s="2">
+        <v>0.03</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="B41" s="1">
+        <v>1.45</v>
+      </c>
+      <c r="C41" s="1">
+        <v>2.7</v>
+      </c>
+      <c r="D41" s="1">
+        <v>3.2</v>
+      </c>
+      <c r="E41" s="1">
+        <v>7</v>
+      </c>
+      <c r="F41" s="1">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>12</v>
+      </c>
+      <c r="P43" s="9" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q43" s="9"/>
+      <c r="R43" s="9"/>
+      <c r="S43" s="9"/>
+      <c r="T43" s="9"/>
+      <c r="U43" s="9"/>
+      <c r="V43" s="9"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>5</v>
+      </c>
+      <c r="B44">
+        <v>0.25</v>
+      </c>
+      <c r="C44">
+        <v>0.5</v>
+      </c>
+      <c r="D44">
+        <v>0.75</v>
+      </c>
+      <c r="E44">
+        <v>1</v>
+      </c>
+      <c r="F44">
+        <v>1.25</v>
+      </c>
+      <c r="G44">
+        <v>1.5</v>
+      </c>
+      <c r="H44">
+        <v>1.75</v>
+      </c>
+      <c r="I44">
+        <v>2</v>
+      </c>
+      <c r="J44">
+        <v>2.25</v>
+      </c>
+      <c r="K44">
+        <v>2.5</v>
+      </c>
+      <c r="L44">
+        <v>2.75</v>
+      </c>
+      <c r="M44" s="7">
+        <v>3</v>
+      </c>
+      <c r="N44" s="7">
+        <v>3.25</v>
+      </c>
+      <c r="O44" s="7">
+        <v>3.5</v>
+      </c>
+      <c r="P44" s="7">
+        <v>3.75</v>
+      </c>
+      <c r="Q44" s="7">
+        <v>4</v>
+      </c>
+      <c r="R44" s="7">
+        <v>4.25</v>
+      </c>
+      <c r="S44" s="7">
+        <v>4.5</v>
+      </c>
+      <c r="T44" s="7">
+        <v>4.75</v>
+      </c>
+      <c r="U44" s="7">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>6</v>
+      </c>
+      <c r="B45">
+        <f>B44</f>
+        <v>0.25</v>
+      </c>
+      <c r="C45">
+        <f t="shared" ref="C45:U45" si="5">C44-B44</f>
+        <v>0.25</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="E45">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="H45">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="I45">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="N45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="O45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="P45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="Q45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="R45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="S45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="T45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+      <c r="U45" s="7">
+        <f t="shared" si="5"/>
+        <v>0.25</v>
+      </c>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>1</v>
+      </c>
+      <c r="B46">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>1</v>
+      </c>
+      <c r="D46">
+        <v>1</v>
+      </c>
+      <c r="E46">
+        <v>1</v>
+      </c>
+      <c r="F46">
+        <v>1</v>
+      </c>
+      <c r="G46">
+        <v>0.8</v>
+      </c>
+      <c r="H46">
+        <v>0.8</v>
+      </c>
+      <c r="I46">
+        <v>0.8</v>
+      </c>
+      <c r="J46">
+        <v>0.8</v>
+      </c>
+      <c r="K46">
+        <v>0.8</v>
+      </c>
+      <c r="L46" s="11">
+        <v>0.8</v>
+      </c>
+      <c r="M46" s="7">
+        <v>0.6</v>
+      </c>
+      <c r="N46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="O46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="P46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="Q46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="R46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="S46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="T46" s="7">
+        <v>0.4</v>
+      </c>
+      <c r="U46" s="7">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>17</v>
+      </c>
+      <c r="B47">
+        <f>1-B46</f>
+        <v>0</v>
+      </c>
+      <c r="C47">
+        <f>B46-C46</f>
+        <v>0</v>
+      </c>
+      <c r="D47">
+        <f t="shared" ref="D47:U47" si="6">C46-D46</f>
+        <v>0</v>
+      </c>
+      <c r="E47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="H47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="I47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="M47">
+        <f t="shared" si="6"/>
+        <v>0.20000000000000007</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="6"/>
+        <v>0.19999999999999996</v>
+      </c>
+      <c r="O47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="P47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="Q47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="R47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="S47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="T47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+      <c r="U47">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>15</v>
+      </c>
+      <c r="B48" s="3">
+        <f t="shared" ref="B48:U48" si="7">EXP(-interest_rate*B44)</f>
+        <v>0.99252805481913842</v>
+      </c>
+      <c r="C48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.98511193960306265</v>
+      </c>
+      <c r="D48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97775123719333634</v>
+      </c>
+      <c r="E48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.97044553354850815</v>
+      </c>
+      <c r="F48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.96319441772082182</v>
+      </c>
+      <c r="G48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.95599748183309996</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.94885432105580125</v>
+      </c>
+      <c r="I48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.94176453358424872</v>
+      </c>
+      <c r="J48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.93472772061602749</v>
+      </c>
+      <c r="K48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92774348632855286</v>
+      </c>
+      <c r="L48" s="3">
+        <f t="shared" si="7"/>
+        <v>0.92081143785680453</v>
+      </c>
+      <c r="M48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.91393118527122819</v>
+      </c>
+      <c r="N48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.90710234155580172</v>
+      </c>
+      <c r="O48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.90032452258626561</v>
+      </c>
+      <c r="P48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.89359734710851568</v>
+      </c>
+      <c r="Q48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.88692043671715748</v>
+      </c>
+      <c r="R48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.88029341583422116</v>
+      </c>
+      <c r="S48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.87371591168803442</v>
+      </c>
+      <c r="T48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.86718755429225491</v>
+      </c>
+      <c r="U48" s="8">
+        <f t="shared" si="7"/>
+        <v>0.86070797642505781</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51" s="4" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52" s="3">
+        <f>SUMPRODUCT(B45:L45,B46:L46,B48:L48)</f>
+        <v>2.3482375919761238</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="P43:V43"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+  <legacyDrawing r:id="rId1"/>
 </worksheet>
 </file>
--- a/source/Excel/Leg_computations.xlsx
+++ b/source/Excel/Leg_computations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\CQF\Final_Project\basket_default_swap\source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0F89960C-5E6A-4CFF-9FB4-980DFF74445F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D2B9B1-A966-45FC-AC8B-200EBBB751FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="11880" yWindow="1920" windowWidth="38250" windowHeight="17145" tabRatio="348" activeTab="1" xr2:uid="{866FE5D0-AC36-4EDC-9D05-F980BDD1236C}"/>
+    <workbookView xWindow="19845" yWindow="765" windowWidth="38250" windowHeight="17145" tabRatio="348" xr2:uid="{866FE5D0-AC36-4EDC-9D05-F980BDD1236C}"/>
   </bookViews>
   <sheets>
     <sheet name="Premium_Leg" sheetId="1" r:id="rId1"/>
@@ -178,7 +178,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="0.0000"/>
-    <numFmt numFmtId="168" formatCode="0.0000000"/>
+    <numFmt numFmtId="165" formatCode="0.0000000"/>
   </numFmts>
   <fonts count="8" x14ac:knownFonts="1">
     <font>
@@ -307,11 +307,11 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="164" fontId="5" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="168" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="4">
     <cellStyle name="Berechnung" xfId="3" builtinId="22"/>
@@ -631,8 +631,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7ED4B817-309F-4F74-BF92-CE6A16A76A4F}">
   <dimension ref="A1:V49"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection sqref="A1:Z55"/>
+    <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="B26" sqref="B26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -910,7 +910,7 @@
         <v>0.99252805481913842</v>
       </c>
       <c r="C11" s="3">
-        <f t="shared" ref="C11:U11" si="1">EXP(-interest_rate*C8)</f>
+        <f t="shared" ref="C11:T11" si="1">EXP(-interest_rate*C8)</f>
         <v>0.98511193960306265</v>
       </c>
       <c r="D11" s="3">
@@ -998,7 +998,7 @@
       </c>
     </row>
     <row r="15" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A15" s="10">
+      <c r="A15" s="9">
         <f>SUMPRODUCT(B9:U9,B10:U10,B11:U11)</f>
         <v>4.625677713909484</v>
       </c>
@@ -1027,7 +1027,7 @@
     </row>
     <row r="22" spans="1:21" x14ac:dyDescent="0.25">
       <c r="B22" s="1">
-        <v>1.49</v>
+        <v>1.45</v>
       </c>
       <c r="C22" s="1">
         <v>2.7</v>
@@ -1401,15 +1401,15 @@
       <c r="A41" t="s">
         <v>12</v>
       </c>
-      <c r="P41" s="9" t="s">
+      <c r="P41" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q41" s="9"/>
-      <c r="R41" s="9"/>
-      <c r="S41" s="9"/>
-      <c r="T41" s="9"/>
-      <c r="U41" s="9"/>
-      <c r="V41" s="9"/>
+      <c r="Q41" s="11"/>
+      <c r="R41" s="11"/>
+      <c r="S41" s="11"/>
+      <c r="T41" s="11"/>
+      <c r="U41" s="11"/>
+      <c r="V41" s="11"/>
     </row>
     <row r="42" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
@@ -1595,7 +1595,7 @@
       <c r="K44">
         <v>0.8</v>
       </c>
-      <c r="L44" s="11">
+      <c r="L44" s="10">
         <v>0.8</v>
       </c>
       <c r="M44" s="7">
@@ -1736,7 +1736,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52D4961A-93CE-45A5-A686-FF67CFAA7CBA}">
   <dimension ref="A1:V52"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="N19" sqref="N19"/>
     </sheetView>
   </sheetViews>
@@ -2188,7 +2188,7 @@
       </c>
     </row>
     <row r="16" spans="1:21" x14ac:dyDescent="0.25">
-      <c r="A16" s="10">
+      <c r="A16" s="9">
         <f>SUMPRODUCT(B9:U9,B11:U11,B12:U12)</f>
         <v>0</v>
       </c>
@@ -2542,83 +2542,83 @@
         <v>15</v>
       </c>
       <c r="B30" s="3">
-        <f>EXP(-interest_rate*B26)</f>
+        <f t="shared" ref="B30:U30" si="5">EXP(-interest_rate*B26)</f>
         <v>0.99252805481913842</v>
       </c>
       <c r="C30" s="3">
-        <f>EXP(-interest_rate*C26)</f>
+        <f t="shared" si="5"/>
         <v>0.98511193960306265</v>
       </c>
       <c r="D30" s="3">
-        <f>EXP(-interest_rate*D26)</f>
+        <f t="shared" si="5"/>
         <v>0.97775123719333634</v>
       </c>
       <c r="E30" s="3">
-        <f>EXP(-interest_rate*E26)</f>
+        <f t="shared" si="5"/>
         <v>0.97044553354850815</v>
       </c>
       <c r="F30" s="3">
-        <f>EXP(-interest_rate*F26)</f>
+        <f t="shared" si="5"/>
         <v>0.96319441772082182</v>
       </c>
       <c r="G30" s="3">
-        <f>EXP(-interest_rate*G26)</f>
+        <f t="shared" si="5"/>
         <v>0.95599748183309996</v>
       </c>
       <c r="H30" s="3">
-        <f>EXP(-interest_rate*H26)</f>
+        <f t="shared" si="5"/>
         <v>0.94885432105580125</v>
       </c>
       <c r="I30" s="3">
-        <f>EXP(-interest_rate*I26)</f>
+        <f t="shared" si="5"/>
         <v>0.94176453358424872</v>
       </c>
       <c r="J30" s="3">
-        <f>EXP(-interest_rate*J26)</f>
+        <f t="shared" si="5"/>
         <v>0.93472772061602749</v>
       </c>
       <c r="K30" s="3">
-        <f>EXP(-interest_rate*K26)</f>
+        <f t="shared" si="5"/>
         <v>0.92774348632855286</v>
       </c>
       <c r="L30" s="3">
-        <f>EXP(-interest_rate*L26)</f>
+        <f t="shared" si="5"/>
         <v>0.92081143785680453</v>
       </c>
       <c r="M30" s="3">
-        <f>EXP(-interest_rate*M26)</f>
+        <f t="shared" si="5"/>
         <v>0.91393118527122819</v>
       </c>
       <c r="N30" s="3">
-        <f>EXP(-interest_rate*N26)</f>
+        <f t="shared" si="5"/>
         <v>0.90710234155580172</v>
       </c>
       <c r="O30" s="3">
-        <f>EXP(-interest_rate*O26)</f>
+        <f t="shared" si="5"/>
         <v>0.90032452258626561</v>
       </c>
       <c r="P30" s="3">
-        <f>EXP(-interest_rate*P26)</f>
+        <f t="shared" si="5"/>
         <v>0.89359734710851568</v>
       </c>
       <c r="Q30" s="3">
-        <f>EXP(-interest_rate*Q26)</f>
+        <f t="shared" si="5"/>
         <v>0.88692043671715748</v>
       </c>
       <c r="R30" s="3">
-        <f>EXP(-interest_rate*R26)</f>
+        <f t="shared" si="5"/>
         <v>0.88029341583422116</v>
       </c>
       <c r="S30" s="3">
-        <f>EXP(-interest_rate*S26)</f>
+        <f t="shared" si="5"/>
         <v>0.87371591168803442</v>
       </c>
       <c r="T30" s="3">
-        <f>EXP(-interest_rate*T26)</f>
+        <f t="shared" si="5"/>
         <v>0.86718755429225491</v>
       </c>
       <c r="U30" s="3">
-        <f>EXP(-interest_rate*U26)</f>
+        <f t="shared" si="5"/>
         <v>0.86070797642505781</v>
       </c>
     </row>
@@ -2676,15 +2676,15 @@
       <c r="A43" t="s">
         <v>12</v>
       </c>
-      <c r="P43" s="9" t="s">
+      <c r="P43" s="11" t="s">
         <v>14</v>
       </c>
-      <c r="Q43" s="9"/>
-      <c r="R43" s="9"/>
-      <c r="S43" s="9"/>
-      <c r="T43" s="9"/>
-      <c r="U43" s="9"/>
-      <c r="V43" s="9"/>
+      <c r="Q43" s="11"/>
+      <c r="R43" s="11"/>
+      <c r="S43" s="11"/>
+      <c r="T43" s="11"/>
+      <c r="U43" s="11"/>
+      <c r="V43" s="11"/>
     </row>
     <row r="44" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
@@ -2760,79 +2760,79 @@
         <v>0.25</v>
       </c>
       <c r="C45">
-        <f t="shared" ref="C45:U45" si="5">C44-B44</f>
+        <f t="shared" ref="C45:U45" si="6">C44-B44</f>
         <v>0.25</v>
       </c>
       <c r="D45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="E45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="F45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="G45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="H45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="I45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="J45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="K45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="L45">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="M45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="N45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="O45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="P45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="Q45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="R45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="S45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="T45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
       <c r="U45" s="7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>0.25</v>
       </c>
     </row>
@@ -2870,7 +2870,7 @@
       <c r="K46">
         <v>0.8</v>
       </c>
-      <c r="L46" s="11">
+      <c r="L46" s="10">
         <v>0.8</v>
       </c>
       <c r="M46" s="7">
@@ -2914,75 +2914,75 @@
         <v>0</v>
       </c>
       <c r="D47">
-        <f t="shared" ref="D47:U47" si="6">C46-D46</f>
+        <f t="shared" ref="D47:U47" si="7">C46-D46</f>
         <v>0</v>
       </c>
       <c r="E47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="F47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="G47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="H47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="I47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="J47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="K47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="L47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="M47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.20000000000000007</v>
       </c>
       <c r="N47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0.19999999999999996</v>
       </c>
       <c r="O47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="P47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="Q47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="R47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="S47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="T47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
       <c r="U47">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>0</v>
       </c>
     </row>
@@ -2991,83 +2991,83 @@
         <v>15</v>
       </c>
       <c r="B48" s="3">
-        <f t="shared" ref="B48:U48" si="7">EXP(-interest_rate*B44)</f>
+        <f t="shared" ref="B48:U48" si="8">EXP(-interest_rate*B44)</f>
         <v>0.99252805481913842</v>
       </c>
       <c r="C48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.98511193960306265</v>
       </c>
       <c r="D48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.97775123719333634</v>
       </c>
       <c r="E48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.97044553354850815</v>
       </c>
       <c r="F48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.96319441772082182</v>
       </c>
       <c r="G48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.95599748183309996</v>
       </c>
       <c r="H48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.94885432105580125</v>
       </c>
       <c r="I48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.94176453358424872</v>
       </c>
       <c r="J48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.93472772061602749</v>
       </c>
       <c r="K48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92774348632855286</v>
       </c>
       <c r="L48" s="3">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.92081143785680453</v>
       </c>
       <c r="M48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.91393118527122819</v>
       </c>
       <c r="N48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.90710234155580172</v>
       </c>
       <c r="O48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.90032452258626561</v>
       </c>
       <c r="P48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.89359734710851568</v>
       </c>
       <c r="Q48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.88692043671715748</v>
       </c>
       <c r="R48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.88029341583422116</v>
       </c>
       <c r="S48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.87371591168803442</v>
       </c>
       <c r="T48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86718755429225491</v>
       </c>
       <c r="U48" s="8">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>0.86070797642505781</v>
       </c>
     </row>

--- a/source/Excel/Leg_computations.xlsx
+++ b/source/Excel/Leg_computations.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\stefa\Documents\CQF\Final_Project\basket_default_swap\source\Excel\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{27D2B9B1-A966-45FC-AC8B-200EBBB751FE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EC9FB09A-D765-418B-A7C1-DC4ADBBBE896}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="19845" yWindow="765" windowWidth="38250" windowHeight="17145" tabRatio="348" xr2:uid="{866FE5D0-AC36-4EDC-9D05-F980BDD1236C}"/>
+    <workbookView xWindow="19350" yWindow="765" windowWidth="38250" windowHeight="17145" tabRatio="348" xr2:uid="{866FE5D0-AC36-4EDC-9D05-F980BDD1236C}"/>
   </bookViews>
   <sheets>
     <sheet name="Premium_Leg" sheetId="1" r:id="rId1"/>
@@ -632,7 +632,7 @@
   <dimension ref="A1:V49"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
+      <selection activeCell="B11" sqref="B11:U11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
